--- a/transitions_state_all_lgdxb_2025-07-07.xlsx
+++ b/transitions_state_all_lgdxb_2025-07-07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SCIMAI-Gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB230C-C7D8-4364-A395-68A0FDC3C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3697395-9692-4C67-80C5-D7C6652E97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:CC31"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="V12">
         <v>50</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="14"/>
-        <v>-197.7</v>
+        <v>-200.7</v>
       </c>
       <c r="J13">
         <f t="shared" si="15"/>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="42"/>
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="P13">
         <f t="shared" si="43"/>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
-        <v>-188.1</v>
+        <v>-191.1</v>
       </c>
       <c r="J14">
         <f t="shared" si="15"/>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="42"/>
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="P14">
         <f t="shared" si="43"/>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="14"/>
-        <v>-273.59999999999997</v>
+        <v>-276.59999999999997</v>
       </c>
       <c r="J15">
         <f t="shared" si="15"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="42"/>
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="P15">
         <f t="shared" si="43"/>
@@ -5662,7 +5662,7 @@
         <v>90</v>
       </c>
       <c r="T15">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -5915,11 +5915,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="13"/>
-        <v>-226.79999999999998</v>
+        <v>-241.5</v>
       </c>
       <c r="I16">
         <f t="shared" si="14"/>
-        <v>-187.5</v>
+        <v>-190.5</v>
       </c>
       <c r="J16">
         <f t="shared" si="15"/>
@@ -5939,11 +5939,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="41"/>
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="O16">
         <f t="shared" si="42"/>
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="P16">
         <f t="shared" si="43"/>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="V16">
         <v>132</v>
@@ -6214,11 +6214,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="13"/>
-        <v>-224.7</v>
+        <v>-239.39999999999998</v>
       </c>
       <c r="I17">
         <f t="shared" si="14"/>
-        <v>-239.1</v>
+        <v>-253.5</v>
       </c>
       <c r="J17">
         <f t="shared" si="15"/>
@@ -6238,11 +6238,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="41"/>
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="O17">
         <f t="shared" si="42"/>
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="P17">
         <f t="shared" si="43"/>
@@ -6513,11 +6513,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="13"/>
-        <v>-245.1</v>
+        <v>-259.8</v>
       </c>
       <c r="I18">
         <f t="shared" si="14"/>
-        <v>-192</v>
+        <v>-206.4</v>
       </c>
       <c r="J18">
         <f t="shared" si="15"/>
@@ -6537,11 +6537,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="41"/>
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="O18">
         <f t="shared" si="42"/>
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="P18">
         <f t="shared" si="43"/>
@@ -6812,11 +6812,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="13"/>
-        <v>-174.9</v>
+        <v>-189.6</v>
       </c>
       <c r="I19">
         <f t="shared" si="14"/>
-        <v>-254.39999999999998</v>
+        <v>-268.8</v>
       </c>
       <c r="J19">
         <f t="shared" si="15"/>
@@ -6836,11 +6836,11 @@
       </c>
       <c r="N19">
         <f t="shared" si="41"/>
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="O19">
         <f t="shared" si="42"/>
-        <v>848</v>
+        <v>896</v>
       </c>
       <c r="P19">
         <f t="shared" si="43"/>
@@ -7111,11 +7111,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="13"/>
-        <v>-186.6</v>
+        <v>-201.29999999999998</v>
       </c>
       <c r="I20">
         <f t="shared" si="14"/>
-        <v>-301.2</v>
+        <v>-315.59999999999997</v>
       </c>
       <c r="J20">
         <f t="shared" si="15"/>
@@ -7135,11 +7135,11 @@
       </c>
       <c r="N20">
         <f t="shared" si="41"/>
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="O20">
         <f t="shared" si="42"/>
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="P20">
         <f t="shared" si="43"/>
@@ -7410,11 +7410,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="13"/>
-        <v>-187.79999999999998</v>
+        <v>-202.5</v>
       </c>
       <c r="I21">
         <f t="shared" si="14"/>
-        <v>-208.5</v>
+        <v>-222.9</v>
       </c>
       <c r="J21">
         <f t="shared" si="15"/>
@@ -7434,11 +7434,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="41"/>
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="O21">
         <f t="shared" si="42"/>
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="P21">
         <f t="shared" si="43"/>
@@ -7709,11 +7709,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="13"/>
-        <v>-144.29999999999998</v>
+        <v>-159</v>
       </c>
       <c r="I22">
         <f t="shared" si="14"/>
-        <v>-165.6</v>
+        <v>-180</v>
       </c>
       <c r="J22">
         <f t="shared" si="15"/>
@@ -7733,11 +7733,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="41"/>
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="O22">
         <f t="shared" si="42"/>
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="P22">
         <f t="shared" si="43"/>
@@ -8008,11 +8008,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="13"/>
-        <v>-167.4</v>
+        <v>-182.1</v>
       </c>
       <c r="I23">
         <f t="shared" si="14"/>
-        <v>-171.29999999999998</v>
+        <v>-185.7</v>
       </c>
       <c r="J23">
         <f t="shared" si="15"/>
@@ -8032,11 +8032,11 @@
       </c>
       <c r="N23">
         <f t="shared" si="41"/>
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="O23">
         <f t="shared" si="42"/>
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="P23">
         <f t="shared" si="43"/>
@@ -8307,11 +8307,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="13"/>
-        <v>-208.2</v>
+        <v>-222.9</v>
       </c>
       <c r="I24">
         <f t="shared" si="14"/>
-        <v>-153.9</v>
+        <v>-168.29999999999998</v>
       </c>
       <c r="J24">
         <f t="shared" si="15"/>
@@ -8331,11 +8331,11 @@
       </c>
       <c r="N24">
         <f t="shared" si="41"/>
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="O24">
         <f t="shared" si="42"/>
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="P24">
         <f t="shared" si="43"/>
@@ -8606,11 +8606,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="13"/>
-        <v>-152.69999999999999</v>
+        <v>-167.4</v>
       </c>
       <c r="I25">
         <f t="shared" si="14"/>
-        <v>-179.4</v>
+        <v>-193.79999999999998</v>
       </c>
       <c r="J25">
         <f t="shared" si="15"/>
@@ -8630,11 +8630,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="41"/>
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="O25">
         <f t="shared" si="42"/>
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="P25">
         <f t="shared" si="43"/>
@@ -8905,11 +8905,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="13"/>
-        <v>-101.1</v>
+        <v>-115.8</v>
       </c>
       <c r="I26">
         <f t="shared" si="14"/>
-        <v>-124.5</v>
+        <v>-138.9</v>
       </c>
       <c r="J26">
         <f t="shared" si="15"/>
@@ -8929,11 +8929,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="41"/>
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="O26">
         <f t="shared" si="42"/>
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="P26">
         <f t="shared" si="43"/>
@@ -9201,11 +9201,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="13"/>
-        <v>-154.79999999999998</v>
+        <v>-169.5</v>
       </c>
       <c r="I27">
         <f t="shared" si="14"/>
-        <v>-198.9</v>
+        <v>-213.29999999999998</v>
       </c>
       <c r="J27">
         <f t="shared" si="15"/>
@@ -9225,11 +9225,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="41"/>
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="O27">
         <f t="shared" si="42"/>
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="P27">
         <f t="shared" si="43"/>
@@ -9500,11 +9500,11 @@
       </c>
       <c r="H28">
         <f t="shared" si="13"/>
-        <v>-84.3</v>
+        <v>-99</v>
       </c>
       <c r="I28">
         <f t="shared" si="14"/>
-        <v>-135</v>
+        <v>-149.4</v>
       </c>
       <c r="J28">
         <f t="shared" si="15"/>
@@ -9524,11 +9524,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="41"/>
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="O28">
         <f t="shared" si="42"/>
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="P28">
         <f t="shared" si="43"/>
@@ -9799,11 +9799,11 @@
       </c>
       <c r="H29">
         <f t="shared" si="13"/>
-        <v>-130.19999999999999</v>
+        <v>-144.9</v>
       </c>
       <c r="I29">
         <f t="shared" si="14"/>
-        <v>-124.8</v>
+        <v>-139.19999999999999</v>
       </c>
       <c r="J29">
         <f t="shared" si="15"/>
@@ -9823,11 +9823,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="41"/>
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="O29">
         <f t="shared" si="42"/>
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="P29">
         <f t="shared" si="43"/>
@@ -10098,11 +10098,11 @@
       </c>
       <c r="H30">
         <f t="shared" si="13"/>
-        <v>-123.3</v>
+        <v>-138</v>
       </c>
       <c r="I30">
         <f t="shared" si="14"/>
-        <v>-163.79999999999998</v>
+        <v>-178.2</v>
       </c>
       <c r="J30">
         <f t="shared" si="15"/>
@@ -10122,11 +10122,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="41"/>
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O30">
         <f t="shared" si="42"/>
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="P30">
         <f t="shared" si="43"/>
@@ -10397,11 +10397,11 @@
       </c>
       <c r="H31">
         <f t="shared" si="13"/>
-        <v>-163.01999999999998</v>
+        <v>-177.72</v>
       </c>
       <c r="I31">
         <f t="shared" si="14"/>
-        <v>-174.6</v>
+        <v>-189</v>
       </c>
       <c r="J31">
         <f t="shared" si="15"/>
@@ -10421,11 +10421,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="41"/>
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="O31">
         <f t="shared" si="42"/>
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="P31">
         <f t="shared" si="43"/>
@@ -10677,7 +10677,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B3">
         <f>SUM('transitions_state_all_2025-03-1'!H2:H31)</f>
-        <v>-6182.52</v>
+        <v>-6417.72</v>
       </c>
       <c r="C3">
         <f>SUM('transitions_state_all_2025-03-1'!AA$2:AA$31)</f>
@@ -10792,11 +10792,11 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)</f>
-        <v>35913.479999999996</v>
+        <v>35678.28</v>
       </c>
       <c r="G3">
         <f>F2/F3</f>
-        <v>1.0135943383932722</v>
+        <v>1.0202762016554612</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B4">
         <f>SUM('transitions_state_all_2025-03-1'!I2:I31)</f>
-        <v>-6234.9</v>
+        <v>-6462.8999999999987</v>
       </c>
       <c r="C4">
         <f>SUM('transitions_state_all_2025-03-1'!AB$2:AB$31)</f>
@@ -10828,11 +10828,11 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>35923.1</v>
+        <v>35695.1</v>
       </c>
       <c r="G4">
         <f>F2/F4</f>
-        <v>1.0133229036469571</v>
+        <v>1.0197954341072026</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!N$2:N$31)</f>
-        <v>617</v>
+        <v>643.13333333333333</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!AG$2:AG$31)</f>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!O$2:O$31)</f>
-        <v>633.13333333333333</v>
+        <v>658.4666666666667</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!AH$2:AH$31)</f>

--- a/transitions_state_all_lgdxb_2025-07-07.xlsx
+++ b/transitions_state_all_lgdxb_2025-07-07.xlsx
@@ -5,34 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SCIMAI-Gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\SCIMAI-Gym-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3697395-9692-4C67-80C5-D7C6652E97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B953D6B-F42D-4B6B-9142-05AB6BB11BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions_state_all_2025-03-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>demand_f_ma_dfppo</t>
   </si>
@@ -306,14 +295,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>maddpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mappo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>w_3_action_MAPPO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -417,6 +398,37 @@
     <t>f_action_MADDPG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>(s,Q)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3C</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>MADDPG</t>
+  </si>
+  <si>
+    <t>MAPPO</t>
+  </si>
+  <si>
+    <t>MA-DFPPO</t>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体比较</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售商1比较</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +596,28 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFEE0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -785,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -897,6 +931,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1090,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1068,30 +1120,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1405,90 +1457,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802777-6DCB-4B6B-B317-ACB89159F1FF}">
   <dimension ref="A1:CC31"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.4140625" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-    <col min="7" max="8" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.58203125" customWidth="1"/>
-    <col min="12" max="12" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.58203125" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="17.375" customWidth="1"/>
     <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="9.9140625" customWidth="1"/>
-    <col min="26" max="26" width="20.9140625" customWidth="1"/>
-    <col min="27" max="27" width="15.4140625" customWidth="1"/>
+    <col min="21" max="21" width="17.375" customWidth="1"/>
+    <col min="22" max="22" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="26" max="26" width="20.875" customWidth="1"/>
+    <col min="27" max="27" width="15.375" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
     <col min="32" max="34" width="20" customWidth="1"/>
-    <col min="35" max="35" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.4140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="17.1640625" style="5" customWidth="1"/>
-    <col min="41" max="41" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="17.125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="14.125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.25" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.9140625" customWidth="1"/>
-    <col min="45" max="45" width="18.9140625" customWidth="1"/>
+    <col min="44" max="44" width="10.875" customWidth="1"/>
+    <col min="45" max="45" width="18.875" customWidth="1"/>
     <col min="46" max="46" width="15.5" customWidth="1"/>
-    <col min="47" max="47" width="16.9140625" customWidth="1"/>
+    <col min="47" max="47" width="16.875" customWidth="1"/>
     <col min="48" max="48" width="12.75" customWidth="1"/>
-    <col min="49" max="49" width="13.1640625" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" customWidth="1"/>
-    <col min="51" max="51" width="18.4140625" customWidth="1"/>
+    <col min="49" max="49" width="13.125" customWidth="1"/>
+    <col min="50" max="50" width="11.625" customWidth="1"/>
+    <col min="51" max="51" width="18.375" customWidth="1"/>
     <col min="52" max="52" width="15.5" customWidth="1"/>
     <col min="53" max="53" width="16.75" customWidth="1"/>
-    <col min="54" max="54" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.08203125" customWidth="1"/>
-    <col min="58" max="58" width="16.08203125" customWidth="1"/>
-    <col min="59" max="59" width="17.4140625" customWidth="1"/>
-    <col min="60" max="60" width="14.58203125" customWidth="1"/>
-    <col min="61" max="61" width="15.6640625" customWidth="1"/>
+    <col min="54" max="55" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.125" customWidth="1"/>
+    <col min="58" max="58" width="16.125" customWidth="1"/>
+    <col min="59" max="59" width="17.375" customWidth="1"/>
+    <col min="60" max="60" width="14.625" customWidth="1"/>
+    <col min="61" max="61" width="15.625" customWidth="1"/>
     <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="18.5" customWidth="1"/>
-    <col min="65" max="65" width="15.58203125" customWidth="1"/>
-    <col min="66" max="66" width="17.33203125" customWidth="1"/>
-    <col min="67" max="67" width="12.58203125" customWidth="1"/>
-    <col min="68" max="68" width="12.83203125" customWidth="1"/>
+    <col min="65" max="65" width="15.625" customWidth="1"/>
+    <col min="66" max="66" width="17.375" customWidth="1"/>
+    <col min="67" max="67" width="12.625" customWidth="1"/>
+    <col min="68" max="68" width="12.875" customWidth="1"/>
     <col min="69" max="69" width="11.5" customWidth="1"/>
-    <col min="70" max="70" width="18.33203125" customWidth="1"/>
-    <col min="71" max="71" width="15.33203125" customWidth="1"/>
-    <col min="72" max="72" width="16.58203125" customWidth="1"/>
-    <col min="73" max="74" width="12.33203125" customWidth="1"/>
-    <col min="75" max="75" width="11.58203125" customWidth="1"/>
-    <col min="76" max="76" width="19.1640625" customWidth="1"/>
-    <col min="77" max="77" width="15.9140625" customWidth="1"/>
-    <col min="78" max="78" width="17.33203125" customWidth="1"/>
-    <col min="79" max="79" width="14.1640625" customWidth="1"/>
+    <col min="70" max="70" width="18.375" customWidth="1"/>
+    <col min="71" max="71" width="15.375" customWidth="1"/>
+    <col min="72" max="72" width="16.625" customWidth="1"/>
+    <col min="73" max="74" width="12.375" customWidth="1"/>
+    <col min="75" max="75" width="11.625" customWidth="1"/>
+    <col min="76" max="76" width="19.125" customWidth="1"/>
+    <col min="77" max="77" width="15.875" customWidth="1"/>
+    <col min="78" max="78" width="17.375" customWidth="1"/>
+    <col min="79" max="79" width="14.125" customWidth="1"/>
     <col min="80" max="80" width="13.75" customWidth="1"/>
-    <col min="81" max="81" width="12.33203125" customWidth="1"/>
+    <col min="81" max="81" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1503,10 +1553,10 @@
         <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>66</v>
@@ -1521,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
@@ -1539,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="T1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V1" t="s">
         <v>9</v>
@@ -1560,10 +1610,10 @@
         <v>36</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>37</v>
@@ -1578,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="AG1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI1" t="s">
         <v>62</v>
@@ -1596,10 +1646,10 @@
         <v>14</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AO1" t="s">
         <v>15</v>
@@ -1617,10 +1667,10 @@
         <v>40</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>41</v>
@@ -1635,10 +1685,10 @@
         <v>19</v>
       </c>
       <c r="AZ1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BA1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BB1" t="s">
         <v>20</v>
@@ -1653,10 +1703,10 @@
         <v>23</v>
       </c>
       <c r="BF1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BH1" t="s">
         <v>24</v>
@@ -1674,10 +1724,10 @@
         <v>44</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>45</v>
@@ -1692,10 +1742,10 @@
         <v>28</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BU1" t="s">
         <v>29</v>
@@ -1710,10 +1760,10 @@
         <v>32</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CA1" t="s">
         <v>33</v>
@@ -1725,7 +1775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2" si="0">AL2+BE2+BX2</f>
         <v>172</v>
@@ -2000,7 +2050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A31" si="6">AL3+BE3+BX3</f>
         <v>0</v>
@@ -2299,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="6"/>
         <v>122</v>
@@ -2598,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2897,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -3196,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -3495,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3794,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -4093,7 +4143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -4392,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -4691,7 +4741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -4990,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -5289,7 +5339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -5585,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -5884,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -6183,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -6482,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -6781,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -7080,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -7379,7 +7429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -7678,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="6"/>
         <v>52</v>
@@ -7977,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8276,7 +8326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="6"/>
         <v>170</v>
@@ -8575,7 +8625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="6"/>
         <v>206</v>
@@ -8874,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>44</v>
@@ -9170,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -9469,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -9768,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -10067,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -10366,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="6"/>
         <v>177</v>
@@ -10674,15 +10724,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024467F-FDD9-460C-AC01-9D46DAB17942}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -10726,273 +10779,273 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B2">
+        <f>SUM('transitions_state_all_2025-03-1'!L2:L31)</f>
+        <v>-7260</v>
+      </c>
+      <c r="C2">
+        <f>SUM('transitions_state_all_2025-03-1'!AE$2:AE$31)</f>
+        <v>14017.399999999998</v>
+      </c>
+      <c r="D2">
+        <f>SUM('transitions_state_all_2025-03-1'!AX$2:AX$31)</f>
+        <v>13655.2</v>
+      </c>
+      <c r="E2">
+        <f>SUM('transitions_state_all_2025-03-1'!BQ$2:BQ$31)</f>
+        <v>14444.199999999999</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2" si="0">SUM(B2:E2)</f>
+        <v>34856.799999999996</v>
+      </c>
+      <c r="G2">
+        <f>F7/F2</f>
+        <v>1.0443213375869274</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-6030</v>
+      </c>
+      <c r="K2" s="4">
+        <v>13717.399999999998</v>
+      </c>
+      <c r="L2" s="4">
+        <v>13395.2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>14444.199999999999</v>
+      </c>
+      <c r="N2" s="4">
+        <v>35526.799999999996</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.0499941452649832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <f>SUM('transitions_state_all_2025-03-1'!J2:J31)</f>
+        <v>-7300.0199999999986</v>
+      </c>
+      <c r="C3">
+        <f>SUM('transitions_state_all_2025-03-1'!AC$2:AC$31)</f>
+        <v>14037.800000000001</v>
+      </c>
+      <c r="D3">
+        <f>SUM('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
+        <v>13695</v>
+      </c>
+      <c r="E3">
+        <f>SUM('transitions_state_all_2025-03-1'!BO$2:BO$31)</f>
+        <v>14435.000000000004</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>34867.780000000006</v>
+      </c>
+      <c r="G3">
+        <f>F7/F3</f>
+        <v>1.0439924767220625</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-5262.1079999999993</v>
+      </c>
+      <c r="K3" s="4">
+        <v>13657</v>
+      </c>
+      <c r="L3" s="4">
+        <v>13273.600000000002</v>
+      </c>
+      <c r="M3" s="4">
+        <v>14255.600000000004</v>
+      </c>
+      <c r="N3" s="4">
+        <v>35924.092000000004</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1.0383820417785368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <f>SUM('transitions_state_all_2025-03-1'!K2:K31)</f>
+        <v>-6729.6</v>
+      </c>
+      <c r="C4">
+        <f>SUM('transitions_state_all_2025-03-1'!AD$2:AD$31)</f>
+        <v>13953.399999999998</v>
+      </c>
+      <c r="D4">
+        <f>SUM('transitions_state_all_2025-03-1'!AW$2:AW$31)</f>
+        <v>13673.800000000001</v>
+      </c>
+      <c r="E4">
+        <f>SUM('transitions_state_all_2025-03-1'!BP$2:BP$31)</f>
+        <v>14422.000000000002</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:E4)</f>
+        <v>35319.599999999999</v>
+      </c>
+      <c r="G4">
+        <f>F7/F4</f>
+        <v>1.0306373798117761</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-5171.7479999999987</v>
+      </c>
+      <c r="K4" s="4">
+        <v>13953.399999999998</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12976.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>14116.400000000001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>35874.252</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.0398246631037771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <f>SUM('transitions_state_all_2025-03-1'!I2:I31)</f>
+        <v>-6462.8999999999987</v>
+      </c>
+      <c r="C5">
+        <f>SUM('transitions_state_all_2025-03-1'!AB$2:AB$31)</f>
+        <v>14025.199999999999</v>
+      </c>
+      <c r="D5">
+        <f>SUM('transitions_state_all_2025-03-1'!AU$2:AU$31)</f>
+        <v>13689.000000000004</v>
+      </c>
+      <c r="E5">
+        <f>SUM('transitions_state_all_2025-03-1'!BN$2:BN$31)</f>
+        <v>14443.799999999997</v>
+      </c>
+      <c r="F5">
+        <f>SUM(B5:E5)</f>
+        <v>35695.1</v>
+      </c>
+      <c r="G5">
+        <f>F7/F5</f>
+        <v>1.0197954341072026</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <f>SUM('transitions_state_all_2025-03-1'!H2:H31)</f>
+        <v>-6417.72</v>
+      </c>
+      <c r="C6">
+        <f>SUM('transitions_state_all_2025-03-1'!AA$2:AA$31)</f>
+        <v>14000.599999999999</v>
+      </c>
+      <c r="D6">
+        <f>SUM('transitions_state_all_2025-03-1'!AT$2:AT$31)</f>
+        <v>13678.4</v>
+      </c>
+      <c r="E6">
+        <f>SUM('transitions_state_all_2025-03-1'!BM$2:BM$31)</f>
+        <v>14417.000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="1">SUM(B6:E6)</f>
+        <v>35678.28</v>
+      </c>
+      <c r="G6">
+        <f>F7/F6</f>
+        <v>1.0202762016554612</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
         <f>SUM('transitions_state_all_2025-03-1'!G2:G31)</f>
         <v>-5831.1000000000022</v>
       </c>
-      <c r="C2">
+      <c r="C7">
         <f>SUM('transitions_state_all_2025-03-1'!Z$2:Z$31)</f>
         <v>14050.800000000001</v>
       </c>
-      <c r="D2">
+      <c r="D7">
         <f>SUM('transitions_state_all_2025-03-1'!AS$2:AS$31)</f>
         <v>13713.000000000002</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <f>SUM('transitions_state_all_2025-03-1'!BL$2:BL$31)</f>
         <v>14469.000000000005</v>
       </c>
-      <c r="F2">
-        <f>SUM(B2:E2)</f>
+      <c r="F7">
+        <f>SUM(B7:E7)</f>
         <v>36401.700000000004</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J7" s="4">
         <v>-4967.268</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K7" s="4">
         <v>14050.800000000001</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L7" s="4">
         <v>13713.000000000002</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M7" s="4">
         <v>14506.4</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N7" s="4">
         <v>37302.932000000001</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O7" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3">
-        <f>SUM('transitions_state_all_2025-03-1'!H2:H31)</f>
-        <v>-6417.72</v>
-      </c>
-      <c r="C3">
-        <f>SUM('transitions_state_all_2025-03-1'!AA$2:AA$31)</f>
-        <v>14000.599999999999</v>
-      </c>
-      <c r="D3">
-        <f>SUM('transitions_state_all_2025-03-1'!AT$2:AT$31)</f>
-        <v>13678.4</v>
-      </c>
-      <c r="E3">
-        <f>SUM('transitions_state_all_2025-03-1'!BM$2:BM$31)</f>
-        <v>14417.000000000002</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)</f>
-        <v>35678.28</v>
-      </c>
-      <c r="G3">
-        <f>F2/F3</f>
-        <v>1.0202762016554612</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <f>SUM('transitions_state_all_2025-03-1'!I2:I31)</f>
-        <v>-6462.8999999999987</v>
-      </c>
-      <c r="C4">
-        <f>SUM('transitions_state_all_2025-03-1'!AB$2:AB$31)</f>
-        <v>14025.199999999999</v>
-      </c>
-      <c r="D4">
-        <f>SUM('transitions_state_all_2025-03-1'!AU$2:AU$31)</f>
-        <v>13689.000000000004</v>
-      </c>
-      <c r="E4">
-        <f>SUM('transitions_state_all_2025-03-1'!BN$2:BN$31)</f>
-        <v>14443.799999999997</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>35695.1</v>
-      </c>
-      <c r="G4">
-        <f>F2/F4</f>
-        <v>1.0197954341072026</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <f>SUM('transitions_state_all_2025-03-1'!J2:J31)</f>
-        <v>-7300.0199999999986</v>
-      </c>
-      <c r="C5">
-        <f>SUM('transitions_state_all_2025-03-1'!AC$2:AC$31)</f>
-        <v>14037.800000000001</v>
-      </c>
-      <c r="D5">
-        <f>SUM('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>13695</v>
-      </c>
-      <c r="E5">
-        <f>SUM('transitions_state_all_2025-03-1'!BO$2:BO$31)</f>
-        <v>14435.000000000004</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F7" si="1">SUM(B5:E5)</f>
-        <v>34867.780000000006</v>
-      </c>
-      <c r="G5">
-        <f>F2/F5</f>
-        <v>1.0439924767220625</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="4">
-        <v>-5262.1079999999993</v>
-      </c>
-      <c r="K5" s="4">
-        <v>13657</v>
-      </c>
-      <c r="L5" s="4">
-        <v>13273.600000000002</v>
-      </c>
-      <c r="M5" s="4">
-        <v>14255.600000000004</v>
-      </c>
-      <c r="N5" s="4">
-        <v>35924.092000000004</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1.0383820417785368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <f>SUM('transitions_state_all_2025-03-1'!K2:K31)</f>
-        <v>-6729.6</v>
-      </c>
-      <c r="C6">
-        <f>SUM('transitions_state_all_2025-03-1'!AD$2:AD$31)</f>
-        <v>13953.399999999998</v>
-      </c>
-      <c r="D6">
-        <f>SUM('transitions_state_all_2025-03-1'!AW$2:AW$31)</f>
-        <v>13673.800000000001</v>
-      </c>
-      <c r="E6">
-        <f>SUM('transitions_state_all_2025-03-1'!BP$2:BP$31)</f>
-        <v>14422.000000000002</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>35319.599999999999</v>
-      </c>
-      <c r="G6">
-        <f>F2/F6</f>
-        <v>1.0306373798117761</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4">
-        <v>-5171.7479999999987</v>
-      </c>
-      <c r="K6" s="4">
-        <v>13953.399999999998</v>
-      </c>
-      <c r="L6" s="4">
-        <v>12976.2</v>
-      </c>
-      <c r="M6" s="4">
-        <v>14116.400000000001</v>
-      </c>
-      <c r="N6" s="4">
-        <v>35874.252</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1.0398246631037771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7">
-        <f>SUM('transitions_state_all_2025-03-1'!L2:L31)</f>
-        <v>-7260</v>
-      </c>
-      <c r="C7">
-        <f>SUM('transitions_state_all_2025-03-1'!AE$2:AE$31)</f>
-        <v>14017.399999999998</v>
-      </c>
-      <c r="D7">
-        <f>SUM('transitions_state_all_2025-03-1'!AX$2:AX$31)</f>
-        <v>13655.2</v>
-      </c>
-      <c r="E7">
-        <f>SUM('transitions_state_all_2025-03-1'!BQ$2:BQ$31)</f>
-        <v>14444.199999999999</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>34856.799999999996</v>
-      </c>
-      <c r="G7">
-        <f>F2/F7</f>
-        <v>1.0443213375869274</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-6030</v>
-      </c>
-      <c r="K7" s="4">
-        <v>13717.399999999998</v>
-      </c>
-      <c r="L7" s="4">
-        <v>13395.2</v>
-      </c>
-      <c r="M7" s="4">
-        <v>14444.199999999999</v>
-      </c>
-      <c r="N7" s="4">
-        <v>35526.799999999996</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1.0499941452649832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -11001,7 +11054,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -11016,6 +11069,15 @@
       </c>
       <c r="E11" t="s">
         <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>78</v>
@@ -11035,249 +11097,313 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!R$2:R$31)</f>
+        <v>740</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
+        <v>133.76666666666668</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BD$2:BD$31)</f>
+        <v>124.13333333333334</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BW$2:BW$31)</f>
+        <v>125.96666666666667</v>
+      </c>
+      <c r="F12" s="2">
+        <f>SUM(B12:E12)</f>
+        <v>1123.8666666666666</v>
+      </c>
+      <c r="G12">
+        <f>F12/F$17</f>
+        <v>1.1869323382384003</v>
+      </c>
+      <c r="H12">
+        <f>C12/C$17</f>
+        <v>1.0516247379454928</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4">
+        <v>576.66666666666663</v>
+      </c>
+      <c r="K12" s="4">
+        <v>180.43333333333334</v>
+      </c>
+      <c r="L12" s="4">
+        <v>164.13333333333333</v>
+      </c>
+      <c r="M12" s="4">
+        <v>125.96666666666667</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!P$2:P$31)</f>
+        <v>741.16666666666663</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
+        <v>130</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BB$2:BB$31)</f>
+        <v>119.66666666666667</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BU$2:BU$31)</f>
+        <v>125.46666666666667</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13:F17" si="2">SUM(B13:E13)</f>
+        <v>1116.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="3">F13/F$17</f>
+        <v>1.1789410687882842</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H16" si="4">C13/C$17</f>
+        <v>1.0220125786163521</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="4">
+        <v>514.72266666666667</v>
+      </c>
+      <c r="K13" s="4">
+        <v>191.2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>184.73333333333332</v>
+      </c>
+      <c r="M13" s="4">
+        <v>153.06666666666666</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.5031446540880502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!Q$2:Q$31)</f>
+        <v>688.1</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AJ$2:AJ$31)</f>
+        <v>144.13333333333333</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BC$2:BC$31)</f>
+        <v>126.43333333333334</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BV$2:BV$31)</f>
+        <v>125.06666666666666</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>1083.7333333333333</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>1.1445469267056256</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>1.1331236897274632</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4">
+        <v>523.63866666666672</v>
+      </c>
+      <c r="K14" s="4">
+        <v>144.13333333333333</v>
+      </c>
+      <c r="L14" s="4">
+        <v>237.63333333333333</v>
+      </c>
+      <c r="M14" s="4">
+        <v>174.66666666666666</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.1331236897274632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!O$2:O$31)</f>
+        <v>658.4666666666667</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AH$2:AH$31)</f>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BA$2:BA$31)</f>
+        <v>120.56666666666666</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BT$2:BT$31)</f>
+        <v>123.96666666666667</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>1035.2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>1.0932901499683165</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1.0393081761006289</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!N$2:N$31)</f>
+        <v>643.13333333333333</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AG$2:AG$31)</f>
+        <v>136.86666666666667</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ$2:AZ$31)</f>
+        <v>119.33333333333333</v>
+      </c>
+      <c r="E16" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!BS$2:BS$31)</f>
+        <v>126.63333333333334</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>1025.9666666666667</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>1.0835386890093643</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>1.0759958071278826</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!M$2:M$31)</f>
         <v>588.4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C17" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!AF$2:AF$31)</f>
         <v>127.2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D17" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!AY$2:AY$31)</f>
         <v>115.13333333333334</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E17" s="2">
         <f>AVERAGE('transitions_state_all_2025-03-1'!BR$2:BR$31)</f>
         <v>116.13333333333334</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>946.86666666666667</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J17" s="4">
         <v>496.58533333333332</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K17" s="4">
         <v>127.2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L17" s="4">
         <v>115.13333333333334</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M17" s="4">
         <v>110.6</v>
-      </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!N$2:N$31)</f>
-        <v>643.13333333333333</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AG$2:AG$31)</f>
-        <v>136.86666666666667</v>
-      </c>
-      <c r="D13" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ$2:AZ$31)</f>
-        <v>119.33333333333333</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BS$2:BS$31)</f>
-        <v>126.63333333333334</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!O$2:O$31)</f>
-        <v>658.4666666666667</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AH$2:AH$31)</f>
-        <v>132.19999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BA$2:BA$31)</f>
-        <v>120.56666666666666</v>
-      </c>
-      <c r="E14" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BT$2:BT$31)</f>
-        <v>123.96666666666667</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!P$2:P$31)</f>
-        <v>741.16666666666663</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>130</v>
-      </c>
-      <c r="D15" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BB$2:BB$31)</f>
-        <v>119.66666666666667</v>
-      </c>
-      <c r="E15" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BU$2:BU$31)</f>
-        <v>125.46666666666667</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="4">
-        <v>514.72266666666667</v>
-      </c>
-      <c r="K15" s="4">
-        <v>191.2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>184.73333333333332</v>
-      </c>
-      <c r="M15" s="4">
-        <v>153.06666666666666</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1.5031446540880502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!Q$2:Q$31)</f>
-        <v>688.1</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AJ$2:AJ$31)</f>
-        <v>144.13333333333333</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BC$2:BC$31)</f>
-        <v>126.43333333333334</v>
-      </c>
-      <c r="E16" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BV$2:BV$31)</f>
-        <v>125.06666666666666</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="4">
-        <v>523.63866666666672</v>
-      </c>
-      <c r="K16" s="4">
-        <v>144.13333333333333</v>
-      </c>
-      <c r="L16" s="4">
-        <v>237.63333333333333</v>
-      </c>
-      <c r="M16" s="4">
-        <v>174.66666666666666</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1.1331236897274632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!R$2:R$31)</f>
-        <v>740</v>
-      </c>
-      <c r="C17" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
-        <v>133.76666666666668</v>
-      </c>
-      <c r="D17" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BD$2:BD$31)</f>
-        <v>124.13333333333334</v>
-      </c>
-      <c r="E17" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!BW$2:BW$31)</f>
-        <v>125.96666666666667</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="4">
-        <v>576.66666666666663</v>
-      </c>
-      <c r="K17" s="4">
-        <v>180.43333333333334</v>
-      </c>
-      <c r="L17" s="4">
-        <v>164.13333333333333</v>
-      </c>
-      <c r="M17" s="4">
-        <v>125.96666666666667</v>
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f>B12/B15</f>
+        <f>B17/B13</f>
         <v>0.79388351697773785</v>
       </c>
       <c r="C18">
-        <f>C16/C12</f>
+        <f>C14/C17</f>
         <v>1.1331236897274632</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:E18" si="2">D15/D12</f>
+        <f>D13/D17</f>
         <v>1.0393746381007527</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f>E13/E17</f>
         <v>1.0803673938002296</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19">
-        <f>B12/B17</f>
+        <f>B17/B12</f>
         <v>0.79513513513513512</v>
       </c>
       <c r="C19">
-        <f>C17/C12</f>
+        <f>C12/C17</f>
         <v>1.0516247379454928</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:E19" si="3">D17/D12</f>
+        <f>D12/D17</f>
         <v>1.0781702374059061</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f>E12/E17</f>
         <v>1.0846727898966704</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -11294,7 +11420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -11303,37 +11429,47 @@
         <v>29.033333333333335</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <f>AVERAGE('transitions_state_all_2025-03-1'!BX3:BX32)</f>
         <v>30.03448275862069</v>
       </c>
-      <c r="F22">
-        <f>E22/E21</f>
+      <c r="F24">
+        <f>E24/E21</f>
         <v>1.0344827586206897</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f>AVERAGE('transitions_state_all_2025-03-1'!BX4:BX33)</f>
         <v>31.107142857142858</v>
       </c>
-      <c r="F23">
-        <f>E23/E21</f>
+      <c r="F25">
+        <f>E25/E21</f>
         <v>1.0714285714285714</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <f>AVERAGE('transitions_state_all_2025-03-1'!BX5:BX34)</f>
         <v>29.222222222222221</v>
       </c>
@@ -11341,5 +11477,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>